--- a/Airframe_datasheet/Airframe.xlsx
+++ b/Airframe_datasheet/Airframe.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prateekranjan/Documents/Github/TASOPT.jl/Airframe_datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78C02CB-124F-154C-98BF-E8D92589B9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44357CA0-C331-2645-87C2-D94A4DAC94F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="1620" windowWidth="27640" windowHeight="16940" xr2:uid="{58E75CC3-7538-724F-88E7-0C02D6709868}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Airframe</t>
   </si>
@@ -141,6 +141,30 @@
   </si>
   <si>
     <t>SPAN SCALING FACTOR</t>
+  </si>
+  <si>
+    <t>B737-600</t>
+  </si>
+  <si>
+    <t>B737-700</t>
+  </si>
+  <si>
+    <t>B737-800</t>
+  </si>
+  <si>
+    <t>B737-900</t>
+  </si>
+  <si>
+    <t>B737-MAX-7</t>
+  </si>
+  <si>
+    <t>B737-MAX-8</t>
+  </si>
+  <si>
+    <t>B737-MAX-9</t>
+  </si>
+  <si>
+    <t>B737-MAX-10</t>
   </si>
 </sst>
 </file>
@@ -230,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,10 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,9 +276,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -285,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -325,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -431,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8EE234-731B-B640-87BF-23E34BF57369}">
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -678,70 +695,56 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="11">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
         <v>62.7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="3">
         <v>6.1976000000000004</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>35</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="3">
         <f>J3*2</f>
         <v>58.8</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="3">
         <v>29.4</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3">
         <v>22.9</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3">
         <v>7.0053200000000002</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="3">
         <v>11.866</v>
       </c>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="4">
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3">
         <v>9.609</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="3">
         <v>3.1</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
       <c r="L4" s="3"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:22" ht="19" x14ac:dyDescent="0.25">
@@ -755,26 +758,26 @@
       <c r="D5" s="3">
         <v>299550</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>63.73</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>6.2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>8.68</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>31.6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>60.93</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <f>I5/2</f>
         <v>30.465</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="4">
         <v>427.8</v>
       </c>
       <c r="L5" s="3">
@@ -786,7 +789,7 @@
       <c r="N5" s="3">
         <v>207700</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="3">
         <v>3.96</v>
       </c>
       <c r="R5" s="3">
@@ -803,7 +806,7 @@
         <f>T5/2</f>
         <v>30.468442690757925</v>
       </c>
-      <c r="V5" s="12">
+      <c r="V5" s="9">
         <f>U5/29.4</f>
         <v>1.0363415881210178</v>
       </c>
@@ -819,26 +822,26 @@
       <c r="D6" s="3">
         <v>353800</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>73.86</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4">
         <v>6.2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>8.68</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>31.6</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
         <v>60.93</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <f t="shared" ref="J6:J8" si="0">I6/2</f>
         <v>30.465</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>427.8</v>
       </c>
       <c r="L6" s="3">
@@ -850,7 +853,7 @@
       <c r="N6" s="3">
         <v>207700</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="3">
         <v>3.96</v>
       </c>
       <c r="R6" s="3">
@@ -867,7 +870,7 @@
         <f t="shared" ref="U6:U17" si="2">T6/2</f>
         <v>30.468442690757925</v>
       </c>
-      <c r="V6" s="12">
+      <c r="V6" s="9">
         <f t="shared" ref="V6:V17" si="3">U6/29.4</f>
         <v>1.0363415881210178</v>
       </c>
@@ -883,26 +886,26 @@
       <c r="D7" s="3">
         <v>370000</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>73.86</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>6.2</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>9.61</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="5">
         <v>31.6</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>64.8</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>32.4</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>436.8</v>
       </c>
       <c r="L7" s="3">
@@ -914,7 +917,7 @@
       <c r="N7" s="3">
         <v>320863</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="3">
         <v>3.96</v>
       </c>
       <c r="R7" s="3">
@@ -931,7 +934,7 @@
         <f t="shared" si="2"/>
         <v>32.394629184480564</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="9">
         <f t="shared" si="3"/>
         <v>1.1018581355265498</v>
       </c>
@@ -947,26 +950,26 @@
       <c r="D8" s="3">
         <v>320000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>73.86</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>6.2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>9.61</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>31.6</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>64.8</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>32.4</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>436.8</v>
       </c>
       <c r="L8" s="3">
@@ -978,7 +981,7 @@
       <c r="N8" s="3">
         <v>320863</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="3">
         <v>3.96</v>
       </c>
       <c r="R8" s="3">
@@ -995,7 +998,7 @@
         <f t="shared" si="2"/>
         <v>32.394629184480564</v>
       </c>
-      <c r="V8" s="12">
+      <c r="V8" s="9">
         <f t="shared" si="3"/>
         <v>1.1018581355265498</v>
       </c>
@@ -1004,7 +1007,7 @@
       <c r="A9" s="1"/>
       <c r="F9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="V9" s="12"/>
+      <c r="V9" s="9"/>
     </row>
     <row r="10" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1019,27 +1022,27 @@
       <c r="D10" s="3">
         <v>176650</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>48.51</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>5.03</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <f>I10*I10/K10</f>
         <v>7.9876629015178251</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>31.5</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>47.57</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <f>I10/2</f>
         <v>23.785</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="6">
         <v>283.3</v>
       </c>
       <c r="L10" s="3">
@@ -1051,7 +1054,7 @@
       <c r="N10" s="3">
         <v>161740</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="3">
         <v>2.79</v>
       </c>
       <c r="R10" s="3">
@@ -1068,7 +1071,7 @@
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
@@ -1086,27 +1089,27 @@
       <c r="D11" s="3">
         <v>181610</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>48.51</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>5.03</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <f t="shared" ref="G11:G14" si="4">I11*I11/K11</f>
         <v>7.9876629015178251</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>31.5</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>47.57</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <f t="shared" ref="J11:J14" si="5">I11/2</f>
         <v>23.785</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>283.3</v>
       </c>
       <c r="L11" s="3">
@@ -1118,7 +1121,7 @@
       <c r="N11" s="3">
         <v>161740</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="3">
         <v>2.79</v>
       </c>
       <c r="R11" s="3">
@@ -1135,7 +1138,7 @@
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="V11" s="12">
+      <c r="V11" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
@@ -1153,27 +1156,27 @@
       <c r="D12" s="3">
         <v>189750</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>54.94</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>5.03</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <f t="shared" si="4"/>
         <v>7.9876629015178251</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="8">
         <v>31.5</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <v>47.57</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <f t="shared" si="5"/>
         <v>23.785</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>283.3</v>
       </c>
       <c r="L12" s="3">
@@ -1188,7 +1191,7 @@
       <c r="P12" s="3">
         <v>11.03</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="3">
         <v>2.79</v>
       </c>
       <c r="R12" s="3">
@@ -1205,7 +1208,7 @@
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="V12" s="12">
+      <c r="V12" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
@@ -1223,27 +1226,27 @@
       <c r="D13" s="3">
         <v>198440</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>54.94</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>5.03</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <f t="shared" si="4"/>
         <v>7.9876629015178251</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <v>31.5</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <v>47.57</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="6">
         <f t="shared" si="5"/>
         <v>23.785</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="6">
         <v>283.3</v>
       </c>
       <c r="L13" s="3">
@@ -1258,7 +1261,7 @@
       <c r="P13" s="3">
         <v>11.03</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="3">
         <v>2.79</v>
       </c>
       <c r="R13" s="3">
@@ -1275,7 +1278,7 @@
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="V13" s="12">
+      <c r="V13" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
@@ -1293,27 +1296,27 @@
       <c r="D14" s="3">
         <v>229000</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>54.94</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>5.03</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <f t="shared" si="4"/>
         <v>7.7843305813553494</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <v>31.5</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <v>47.57</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <f t="shared" si="5"/>
         <v>23.785</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="6">
         <v>290.7</v>
       </c>
       <c r="L14" s="3">
@@ -1325,7 +1328,7 @@
       <c r="N14" s="3">
         <v>161740</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="3">
         <v>2.79</v>
       </c>
       <c r="R14" s="3">
@@ -1342,7 +1345,7 @@
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="V14" s="12">
+      <c r="V14" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
@@ -1350,7 +1353,7 @@
     <row r="15" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="L15" s="3"/>
-      <c r="V15" s="12"/>
+      <c r="V15" s="9"/>
     </row>
     <row r="16" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1399,7 +1402,7 @@
       <c r="P16" s="3">
         <v>10.56</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="3">
         <v>2.79</v>
       </c>
       <c r="R16" s="3">
@@ -1416,7 +1419,7 @@
         <f t="shared" si="2"/>
         <v>30.156657639731897</v>
       </c>
-      <c r="V16" s="12">
+      <c r="V16" s="9">
         <f t="shared" si="3"/>
         <v>1.0257366544126496</v>
       </c>
@@ -1468,7 +1471,7 @@
       <c r="P17" s="3">
         <v>10.56</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="3">
         <v>2.79</v>
       </c>
       <c r="R17" s="3">
@@ -1485,9 +1488,209 @@
         <f t="shared" si="2"/>
         <v>30.156657639731897</v>
       </c>
-      <c r="V17" s="12">
+      <c r="V17" s="9">
         <f t="shared" si="3"/>
         <v>1.0257366544126496</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>3.8</v>
+      </c>
+      <c r="G20">
+        <f>I20^2/K20</f>
+        <v>9.4531492776886044</v>
+      </c>
+      <c r="H20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>34.32</v>
+      </c>
+      <c r="J20">
+        <f>I20/2</f>
+        <v>17.16</v>
+      </c>
+      <c r="K20">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>3.8</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G27" si="6">I21^2/K21</f>
+        <v>9.4531492776886044</v>
+      </c>
+      <c r="H21">
+        <v>25</v>
+      </c>
+      <c r="I21">
+        <v>34.32</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ref="J21:J27" si="7">I21/2</f>
+        <v>17.16</v>
+      </c>
+      <c r="K21">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22">
+        <v>3.8</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="6"/>
+        <v>9.4531492776886044</v>
+      </c>
+      <c r="H22">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>34.32</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="7"/>
+        <v>17.16</v>
+      </c>
+      <c r="K22">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>3.8</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="6"/>
+        <v>9.4531492776886044</v>
+      </c>
+      <c r="H23">
+        <v>25</v>
+      </c>
+      <c r="I23">
+        <v>34.32</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="7"/>
+        <v>17.16</v>
+      </c>
+      <c r="K23">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24">
+        <v>3.8</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="6"/>
+        <v>10.159420472440946</v>
+      </c>
+      <c r="H24">
+        <v>25</v>
+      </c>
+      <c r="I24">
+        <v>35.92</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="7"/>
+        <v>17.96</v>
+      </c>
+      <c r="K24">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25">
+        <v>3.8</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="6"/>
+        <v>10.159420472440946</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>35.92</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="7"/>
+        <v>17.96</v>
+      </c>
+      <c r="K25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26">
+        <v>3.8</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="6"/>
+        <v>10.159420472440946</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26">
+        <v>35.92</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="7"/>
+        <v>17.96</v>
+      </c>
+      <c r="K26">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>3.8</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="6"/>
+        <v>10.159420472440946</v>
+      </c>
+      <c r="H27">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>35.92</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="7"/>
+        <v>17.96</v>
+      </c>
+      <c r="K27">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Airframe_datasheet/Airframe.xlsx
+++ b/Airframe_datasheet/Airframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prateekranjan/Documents/Github/TASOPT.jl/Airframe_datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A656C255-8BF2-BA41-92E9-DF8A08B767A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2507264D-057F-B149-9AB8-FE52FAB736E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18140" xr2:uid="{58E75CC3-7538-724F-88E7-0C02D6709868}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="72">
   <si>
     <t>Airframe</t>
   </si>
@@ -220,6 +220,42 @@
   <si>
     <t>A321</t>
   </si>
+  <si>
+    <t>dcl_da</t>
+  </si>
+  <si>
+    <t>CMVf Calc</t>
+  </si>
+  <si>
+    <t>CMFUSE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>CMVf</t>
+  </si>
+  <si>
+    <t>CMVf1 Calc</t>
+  </si>
+  <si>
+    <t>CLD</t>
+  </si>
+  <si>
+    <t>CLMF0</t>
+  </si>
+  <si>
+    <t>CMVf1</t>
+  </si>
+  <si>
+    <t>Ref Area</t>
+  </si>
+  <si>
+    <t>dMFuse/Dcl</t>
+  </si>
+  <si>
+    <t>TAIL SPAN</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +331,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -308,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +397,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +616,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B767'!$A$20:$A$28</c:f>
+              <c:f>'B767'!$A$21:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -587,7 +652,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B767'!$B$20:$B$28</c:f>
+              <c:f>'B767'!$B$21:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -660,7 +725,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B767'!$A$32:$A$40</c:f>
+              <c:f>'B767'!$A$33:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -696,7 +761,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B767'!$B$32:$B$40</c:f>
+              <c:f>'B767'!$B$33:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -769,7 +834,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B767'!$A$44:$A$52</c:f>
+              <c:f>'B767'!$A$45:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -805,7 +870,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B767'!$B$44:$B$52</c:f>
+              <c:f>'B767'!$B$45:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1365,7 +1430,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B767'!$B$20:$B$28</c:f>
+              <c:f>'B767'!$B$21:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1401,7 +1466,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B767'!$C$20:$C$28</c:f>
+              <c:f>'B767'!$C$21:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1474,7 +1539,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B767'!$B$32:$B$40</c:f>
+              <c:f>'B767'!$B$33:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1510,7 +1575,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B767'!$C$32:$C$40</c:f>
+              <c:f>'B767'!$C$33:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1583,7 +1648,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'B767'!$B$44:$B$52</c:f>
+              <c:f>'B767'!$B$45:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1619,7 +1684,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'B767'!$C$44:$C$52</c:f>
+              <c:f>'B767'!$C$45:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2149,7 +2214,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'777'!$A$21:$A$29</c:f>
+              <c:f>'777'!$A$23:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2185,7 +2250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'777'!$B$21:$B$29</c:f>
+              <c:f>'777'!$B$23:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2258,7 +2323,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'777'!$A$34:$A$42</c:f>
+              <c:f>'777'!$A$36:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2294,7 +2359,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'777'!$B$34:$B$42</c:f>
+              <c:f>'777'!$B$36:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2367,7 +2432,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'777'!$A$47:$A$55</c:f>
+              <c:f>'777'!$A$49:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2403,7 +2468,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'777'!$B$47:$B$55</c:f>
+              <c:f>'777'!$B$49:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2945,7 +3010,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'777'!$B$21:$B$29</c:f>
+              <c:f>'777'!$B$23:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2981,7 +3046,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'777'!$C$21:$C$29</c:f>
+              <c:f>'777'!$C$23:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3054,7 +3119,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'777'!$B$34:$B$42</c:f>
+              <c:f>'777'!$B$36:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3090,7 +3155,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'777'!$C$34:$C$42</c:f>
+              <c:f>'777'!$C$36:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3163,7 +3228,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'777'!$B$47:$B$55</c:f>
+              <c:f>'777'!$B$49:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3199,7 +3264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'777'!$C$47:$C$55</c:f>
+              <c:f>'777'!$C$49:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3735,7 +3800,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A330'!$A$21:$A$29</c:f>
+              <c:f>'A330'!$A$23:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3771,7 +3836,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A330'!$B$21:$B$29</c:f>
+              <c:f>'A330'!$B$23:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3844,7 +3909,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A330'!$A$34:$A$42</c:f>
+              <c:f>'A330'!$A$36:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3880,7 +3945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A330'!$B$34:$B$42</c:f>
+              <c:f>'A330'!$B$36:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3953,7 +4018,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A330'!$A$47:$A$55</c:f>
+              <c:f>'A330'!$A$49:$A$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -3989,7 +4054,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A330'!$B$47:$B$55</c:f>
+              <c:f>'A330'!$B$49:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4531,7 +4596,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A330'!$B$21:$B$29</c:f>
+              <c:f>'A330'!$B$23:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4567,7 +4632,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A330'!$C$21:$C$29</c:f>
+              <c:f>'A330'!$C$23:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4640,7 +4705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A330'!$B$34:$B$42</c:f>
+              <c:f>'A330'!$B$36:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4676,7 +4741,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A330'!$C$34:$C$42</c:f>
+              <c:f>'A330'!$C$36:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4749,7 +4814,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'A330'!$B$47:$B$55</c:f>
+              <c:f>'A330'!$B$49:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4785,7 +4850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'A330'!$C$47:$C$55</c:f>
+              <c:f>'A330'!$C$49:$C$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -8508,13 +8573,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8544,13 +8609,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8587,13 +8652,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8623,13 +8688,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8666,13 +8731,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8704,13 +8769,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9038,10 +9103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8EE234-731B-B640-87BF-23E34BF57369}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9053,17 +9118,17 @@
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
     <col min="9" max="10" width="17.6640625" customWidth="1"/>
     <col min="11" max="12" width="24.1640625" customWidth="1"/>
-    <col min="13" max="13" width="24.5" customWidth="1"/>
-    <col min="17" max="17" width="16.5" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" customWidth="1"/>
-    <col min="19" max="19" width="23.6640625" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" customWidth="1"/>
-    <col min="21" max="21" width="20" customWidth="1"/>
-    <col min="22" max="22" width="24.83203125" customWidth="1"/>
-    <col min="23" max="23" width="30.1640625" customWidth="1"/>
+    <col min="13" max="14" width="24.5" customWidth="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="19" max="19" width="24.1640625" customWidth="1"/>
+    <col min="20" max="20" width="23.6640625" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1"/>
+    <col min="23" max="23" width="24.83203125" customWidth="1"/>
+    <col min="24" max="24" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9104,38 +9169,41 @@
         <v>24</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:24" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -9168,31 +9236,33 @@
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="3">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3">
         <v>7.0053200000000002</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="3">
         <v>11.866</v>
       </c>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3">
         <v>9.609</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="3">
         <v>3.1</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="V3" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M4" s="3"/>
-      <c r="S4" s="3"/>
-    </row>
-    <row r="5" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N4" s="3"/>
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -9234,34 +9304,37 @@
         <v>21.58</v>
       </c>
       <c r="N5" s="3">
+        <v>10.765000000000001</v>
+      </c>
+      <c r="O5" s="3">
         <v>656000</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="3">
         <v>207700</v>
       </c>
-      <c r="R5" s="3">
+      <c r="S5" s="3">
         <v>3.96</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>9.61</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>3.1</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f>SQRT(H5*L5)</f>
         <v>60.93688538151585</v>
       </c>
-      <c r="V5">
-        <f>U5/2</f>
+      <c r="W5">
+        <f>V5/2</f>
         <v>30.468442690757925</v>
       </c>
-      <c r="W5" s="9">
-        <f>V5/29.4</f>
+      <c r="X5" s="9">
+        <f>W5/29.4</f>
         <v>1.0363415881210178</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -9303,34 +9376,37 @@
         <v>26.89</v>
       </c>
       <c r="N6" s="3">
+        <v>10.765000000000001</v>
+      </c>
+      <c r="O6" s="3">
         <v>660000</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>207700</v>
       </c>
-      <c r="R6" s="3">
+      <c r="S6" s="3">
         <v>3.96</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>9.61</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>3.1</v>
       </c>
-      <c r="U6">
-        <f t="shared" ref="U6:U17" si="1">SQRT(H6*L6)</f>
+      <c r="V6">
+        <f t="shared" ref="V6:V17" si="1">SQRT(H6*L6)</f>
         <v>60.93688538151585</v>
       </c>
-      <c r="V6">
-        <f t="shared" ref="V6:V17" si="2">U6/2</f>
+      <c r="W6">
+        <f t="shared" ref="W6:W17" si="2">V6/2</f>
         <v>30.468442690757925</v>
       </c>
-      <c r="W6" s="9">
-        <f t="shared" ref="W6:W17" si="3">V6/29.4</f>
+      <c r="X6" s="9">
+        <f t="shared" ref="X6:X17" si="3">W6/29.4</f>
         <v>1.0363415881210178</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -9372,34 +9448,37 @@
         <v>26.89</v>
       </c>
       <c r="N7" s="3">
+        <v>10.765000000000001</v>
+      </c>
+      <c r="O7" s="3">
         <v>775000</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="3">
         <v>320863</v>
       </c>
-      <c r="R7" s="3">
+      <c r="S7" s="3">
         <v>3.96</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>9.61</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>3.1</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <f t="shared" si="1"/>
         <v>64.789258368961129</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="2"/>
         <v>32.394629184480564</v>
       </c>
-      <c r="W7" s="9">
+      <c r="X7" s="9">
         <f t="shared" si="3"/>
         <v>1.1018581355265498</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -9441,40 +9520,44 @@
         <v>21.58</v>
       </c>
       <c r="N8" s="3">
+        <v>10.765000000000001</v>
+      </c>
+      <c r="O8" s="3">
         <v>766000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>320863</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3.96</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>9.61</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3.1</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="1"/>
         <v>64.789258368961129</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="2"/>
         <v>32.394629184480564</v>
       </c>
-      <c r="W8" s="9">
+      <c r="X8" s="9">
         <f t="shared" si="3"/>
         <v>1.1018581355265498</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="G9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="W9" s="9"/>
-    </row>
-    <row r="10" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N9" s="3"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -9517,34 +9600,37 @@
         <v>15.85</v>
       </c>
       <c r="N10" s="3">
+        <v>9.31</v>
+      </c>
+      <c r="O10" s="3">
         <v>315000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>161740</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2.79</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>7.92</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2.19</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="1"/>
         <v>47.57</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="W10" s="9">
+      <c r="X10" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -9587,34 +9673,37 @@
         <v>15.85</v>
       </c>
       <c r="N11" s="3">
+        <v>9.31</v>
+      </c>
+      <c r="O11" s="3">
         <v>395000</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>161740</v>
       </c>
-      <c r="R11" s="3">
+      <c r="S11" s="3">
         <v>2.79</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>7.92</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>2.19</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="1"/>
         <v>47.57</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="W11" s="9">
+      <c r="X11" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -9657,37 +9746,40 @@
         <v>18.86</v>
       </c>
       <c r="N12" s="3">
+        <v>9.31</v>
+      </c>
+      <c r="O12" s="3">
         <v>350000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>161740</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>11.03</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2.79</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7.92</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2.19</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="1"/>
         <v>47.57</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="W12" s="9">
+      <c r="X12" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -9730,37 +9822,40 @@
         <v>18.86</v>
       </c>
       <c r="N13" s="3">
+        <v>9.31</v>
+      </c>
+      <c r="O13" s="3">
         <v>412000</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>161740</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="R13" s="3">
         <v>11.03</v>
       </c>
-      <c r="R13" s="3">
+      <c r="S13" s="3">
         <v>2.79</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>7.92</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>2.19</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="1"/>
         <v>47.57</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="W13" s="9">
+      <c r="X13" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -9803,39 +9898,43 @@
         <v>23.11</v>
       </c>
       <c r="N14" s="3">
+        <v>9.31</v>
+      </c>
+      <c r="O14" s="3">
         <v>450000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>161740</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2.79</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>7.92</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2.19</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="1"/>
         <v>47.57</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <f t="shared" si="2"/>
         <v>23.785</v>
       </c>
-      <c r="W14" s="9">
+      <c r="X14" s="9">
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="M15" s="3"/>
-      <c r="W15" s="9"/>
-    </row>
-    <row r="16" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="N15" s="3"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -9877,37 +9976,40 @@
         <v>18.8</v>
       </c>
       <c r="N16" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O16" s="3">
         <v>534000</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>240712</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="R16" s="3">
         <v>10.56</v>
       </c>
-      <c r="R16" s="3">
+      <c r="S16" s="3">
         <v>2.79</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <v>9.3699999999999992</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U16" s="3">
         <v>2.19</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <f t="shared" si="1"/>
         <v>60.313315279463794</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <f t="shared" si="2"/>
         <v>30.156657639731897</v>
       </c>
-      <c r="W16" s="9">
+      <c r="X16" s="9">
         <f t="shared" si="3"/>
         <v>1.0257366544126496</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -9949,37 +10051,40 @@
         <v>22</v>
       </c>
       <c r="N17" s="3">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="O17" s="3">
         <v>534000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>240712</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10.56</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2.79</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>9.3699999999999992</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2.19</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <f t="shared" si="1"/>
         <v>60.313315279463794</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <f t="shared" si="2"/>
         <v>30.156657639731897</v>
       </c>
-      <c r="W17" s="9">
+      <c r="X17" s="9">
         <f t="shared" si="3"/>
         <v>1.0257366544126496</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -10016,7 +10121,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -10053,7 +10158,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -10090,7 +10195,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -10127,7 +10232,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -10144,7 +10249,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -10175,7 +10280,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -10206,7 +10311,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -10237,7 +10342,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -10268,7 +10373,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -10279,7 +10384,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -10290,7 +10395,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -10308,10 +10413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E50E5B2-5444-154F-9F6D-E8C6361B9A58}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10320,22 +10425,22 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -10349,7 +10454,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>-4</v>
       </c>
@@ -10363,7 +10468,7 @@
         <v>-2.0271999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>-3</v>
       </c>
@@ -10377,7 +10482,7 @@
         <v>-1.5618999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>-2</v>
       </c>
@@ -10391,7 +10496,7 @@
         <v>-1.1958999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>-1</v>
       </c>
@@ -10405,7 +10510,7 @@
         <v>-8.5699999999999995E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -10418,8 +10523,15 @@
       <c r="D12" s="3">
         <v>-6.1029999999999999E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <f>(C14-C13)/(B14-B13)</f>
+        <v>-0.22441466099425827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -10433,7 +10545,7 @@
         <v>-3.5699999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -10447,7 +10559,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -10461,7 +10573,7 @@
         <v>1.853E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -10475,446 +10587,470 @@
         <v>4.4289999999999998E-3</v>
       </c>
     </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <v>-0.16083</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15"/>
+    </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="16">
+        <v>1.7179721999999999</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-0.15843499999999999</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-1.614E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B20">
-        <v>-0.19092899999999999</v>
-      </c>
-      <c r="C20">
-        <v>5.2519999999999997E-3</v>
-      </c>
-      <c r="D20">
-        <v>-1.7076000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B21">
-        <v>-7.2562000000000001E-2</v>
+        <v>-0.19092899999999999</v>
       </c>
       <c r="C21">
-        <v>-1.9990000000000001E-2</v>
+        <v>5.2519999999999997E-3</v>
       </c>
       <c r="D21">
-        <v>-1.3618999999999999E-2</v>
+        <v>-1.7076000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B22">
-        <v>4.7708E-2</v>
+        <v>-7.2562000000000001E-2</v>
       </c>
       <c r="C22">
-        <v>-4.6027999999999999E-2</v>
+        <v>-1.9990000000000001E-2</v>
       </c>
       <c r="D22">
-        <v>-1.0717000000000001E-2</v>
+        <v>-1.3618999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B23">
-        <v>0.16853199999999999</v>
+        <v>4.7708E-2</v>
       </c>
       <c r="C23">
-        <v>-7.2588E-2</v>
+        <v>-4.6027999999999999E-2</v>
       </c>
       <c r="D23">
-        <v>-8.2229999999999994E-3</v>
+        <v>-1.0717000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B24">
-        <v>0.28910799999999998</v>
+        <v>0.16853199999999999</v>
       </c>
       <c r="C24">
-        <v>-9.8965999999999998E-2</v>
+        <v>-7.2588E-2</v>
       </c>
       <c r="D24">
-        <v>-5.6100000000000004E-3</v>
+        <v>-8.2229999999999994E-3</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>0.40923599999999999</v>
+        <v>0.28910799999999998</v>
       </c>
       <c r="C25">
-        <v>-0.125087</v>
+        <v>-9.8965999999999998E-2</v>
       </c>
       <c r="D25">
-        <v>-2.862E-3</v>
-      </c>
-      <c r="M25">
-        <f>ABS(D25)-ABS(D24)</f>
-        <v>-2.7480000000000004E-3</v>
-      </c>
-      <c r="O25">
-        <f>M25/(B25-B24)</f>
-        <v>-2.2875599360681939E-2</v>
+        <v>-5.6100000000000004E-3</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>0.52837900000000004</v>
+        <v>0.40923599999999999</v>
       </c>
       <c r="C26">
-        <v>-0.150892</v>
+        <v>-0.125087</v>
       </c>
       <c r="D26">
-        <v>-1.0000000000000001E-5</v>
+        <v>-2.862E-3</v>
+      </c>
+      <c r="M26">
+        <f>ABS(D26)-ABS(D25)</f>
+        <v>-2.7480000000000004E-3</v>
+      </c>
+      <c r="O26">
+        <f>M26/(B26-B25)</f>
+        <v>-2.2875599360681939E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>0.64507899999999996</v>
+        <v>0.52837900000000004</v>
       </c>
       <c r="C27">
-        <v>-0.17626</v>
+        <v>-0.150892</v>
       </c>
       <c r="D27">
-        <v>2.895E-3</v>
+        <v>-1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>0.64507899999999996</v>
+      </c>
+      <c r="C28">
+        <v>-0.17626</v>
+      </c>
+      <c r="D28">
+        <v>2.895E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.75530699999999995</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>-0.200876</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>5.7889999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B32">
-        <v>-0.17827100000000001</v>
-      </c>
-      <c r="C32">
-        <v>1.9380000000000001E-3</v>
-      </c>
-      <c r="D32">
-        <v>-1.5158E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B33">
-        <v>-6.6100000000000006E-2</v>
+        <v>-0.17827100000000001</v>
       </c>
       <c r="C33">
-        <v>-2.2093999999999999E-2</v>
+        <v>1.9380000000000001E-3</v>
       </c>
       <c r="D33">
-        <v>-1.2682000000000001E-2</v>
+        <v>-1.5158E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B34">
-        <v>4.6629999999999998E-2</v>
+        <v>-6.6100000000000006E-2</v>
       </c>
       <c r="C34">
-        <v>-4.6362E-2</v>
+        <v>-2.2093999999999999E-2</v>
       </c>
       <c r="D34">
-        <v>-1.0309E-2</v>
+        <v>-1.2682000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B35">
-        <v>0.15929099999999999</v>
+        <v>4.6629999999999998E-2</v>
       </c>
       <c r="C35">
-        <v>-7.0532999999999998E-2</v>
+        <v>-4.6362E-2</v>
       </c>
       <c r="D35">
-        <v>-7.8139999999999998E-3</v>
+        <v>-1.0309E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B36">
-        <v>0.27174100000000001</v>
+        <v>0.15929099999999999</v>
       </c>
       <c r="C36">
-        <v>-9.4567999999999999E-2</v>
+        <v>-7.0532999999999998E-2</v>
       </c>
       <c r="D36">
-        <v>-5.1789999999999996E-3</v>
+        <v>-7.8139999999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>0.38378699999999999</v>
+        <v>0.27174100000000001</v>
       </c>
       <c r="C37">
-        <v>-0.11841699999999999</v>
+        <v>-9.4567999999999999E-2</v>
       </c>
       <c r="D37">
-        <v>-2.4139999999999999E-3</v>
+        <v>-5.1789999999999996E-3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>0.49497999999999998</v>
+        <v>0.38378699999999999</v>
       </c>
       <c r="C38">
-        <v>-0.142008</v>
+        <v>-0.11841699999999999</v>
       </c>
       <c r="D38">
-        <v>4.66E-4</v>
+        <v>-2.4139999999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>0.60443899999999995</v>
+        <v>0.49497999999999998</v>
       </c>
       <c r="C39">
-        <v>-0.16525899999999999</v>
+        <v>-0.142008</v>
       </c>
       <c r="D39">
-        <v>3.4380000000000001E-3</v>
+        <v>4.66E-4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0.60443899999999995</v>
+      </c>
+      <c r="C40">
+        <v>-0.16525899999999999</v>
+      </c>
+      <c r="D40">
+        <v>3.4380000000000001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>4</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>0.71041299999999996</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>-0.18804399999999999</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>6.4689999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B44">
-        <v>-0.16855800000000001</v>
-      </c>
-      <c r="C44">
-        <v>-1.114E-3</v>
-      </c>
-      <c r="D44">
-        <v>-1.4565E-2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="B45">
-        <v>-6.1550000000000001E-2</v>
+        <v>-0.16855800000000001</v>
       </c>
       <c r="C45">
-        <v>-2.3814999999999999E-2</v>
+        <v>-1.114E-3</v>
       </c>
       <c r="D45">
-        <v>-1.2333E-2</v>
+        <v>-1.4565E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B46">
-        <v>4.5702E-2</v>
+        <v>-6.1550000000000001E-2</v>
       </c>
       <c r="C46">
-        <v>-4.6514E-2</v>
+        <v>-2.3814999999999999E-2</v>
       </c>
       <c r="D46">
-        <v>-9.9839999999999998E-3</v>
+        <v>-1.2333E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B47">
-        <v>0.15292800000000001</v>
+        <v>4.5702E-2</v>
       </c>
       <c r="C47">
-        <v>-6.9140999999999994E-2</v>
+        <v>-4.6514E-2</v>
       </c>
       <c r="D47">
-        <v>-7.4989999999999996E-3</v>
+        <v>-9.9839999999999998E-3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B48">
-        <v>0.26001099999999999</v>
+        <v>0.15292800000000001</v>
       </c>
       <c r="C48">
-        <v>-9.1678999999999997E-2</v>
+        <v>-6.9140999999999994E-2</v>
       </c>
       <c r="D48">
-        <v>-4.8739999999999999E-3</v>
+        <v>-7.4989999999999996E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49">
-        <v>0.36676500000000001</v>
+        <v>0.26001099999999999</v>
       </c>
       <c r="C49">
-        <v>-0.114075</v>
+        <v>-9.1678999999999997E-2</v>
       </c>
       <c r="D49">
-        <v>-2.1150000000000001E-3</v>
+        <v>-4.8739999999999999E-3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>0.47279900000000002</v>
+        <v>0.36676500000000001</v>
       </c>
       <c r="C50">
-        <v>-0.13625499999999999</v>
+        <v>-0.114075</v>
       </c>
       <c r="D50">
-        <v>7.67E-4</v>
+        <v>-2.1150000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>0.57749300000000003</v>
+        <v>0.47279900000000002</v>
       </c>
       <c r="C51">
-        <v>-0.158162</v>
+        <v>-0.13625499999999999</v>
       </c>
       <c r="D51">
-        <v>3.7559999999999998E-3</v>
+        <v>7.67E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>0.57749300000000003</v>
+      </c>
+      <c r="C52">
+        <v>-0.158162</v>
+      </c>
+      <c r="D52">
+        <v>3.7559999999999998E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>4</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>0.67982399999999998</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>-0.179731</v>
       </c>
-      <c r="D52">
+      <c r="D53">
         <v>6.8300000000000001E-3</v>
       </c>
     </row>
@@ -10926,10 +11062,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DD52E1-913A-D54C-9664-7A9A1E8B51DB}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView topLeftCell="A4" zoomScale="149" zoomScaleNormal="149" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10937,30 +11073,51 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>32.311300000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>11.832000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <f>B13-B12</f>
+        <v>0.16055600000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5">
+        <v>420.142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -10974,7 +11131,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>-4</v>
       </c>
@@ -10987,8 +11144,15 @@
       <c r="D8" s="3">
         <v>-2.6939000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8">
+        <f>(C13-C12)/(B13-B12)</f>
+        <v>-0.21193228530855274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>-3</v>
       </c>
@@ -11002,7 +11166,7 @@
         <v>-2.1558999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>-2</v>
       </c>
@@ -11016,7 +11180,7 @@
         <v>-1.712E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>-1</v>
       </c>
@@ -11030,7 +11194,7 @@
         <v>-1.2253E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -11044,7 +11208,7 @@
         <v>-8.3569999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -11057,16 +11221,18 @@
       <c r="D13" s="3">
         <v>-4.9430000000000003E-3</v>
       </c>
-      <c r="G13">
-        <f>ABS(D13)-ABS(D12)</f>
-        <v>-3.4139999999999995E-3</v>
-      </c>
-      <c r="J13">
-        <f>G13/(B13-B12)</f>
-        <v>-2.1263608958867926E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="N13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -11080,7 +11246,7 @@
         <v>-1.5989999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -11093,8 +11259,34 @@
       <c r="D15" s="3">
         <v>-8.9800000000000004E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="16">
+        <v>-0.15437100000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15">
+        <f>I15*I16*I17</f>
+        <v>-767.39678774942399</v>
+      </c>
+      <c r="N15" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>68</v>
+      </c>
+      <c r="R15">
+        <f>L15/(O15-O16)</f>
+        <v>-1029.5100452769304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -11107,439 +11299,481 @@
       <c r="D16" s="3">
         <v>4.4790000000000003E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16">
+        <v>420.142</v>
+      </c>
+      <c r="N16" t="s">
+        <v>67</v>
+      </c>
+      <c r="O16" s="14">
+        <v>-0.19539999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15">
+        <v>-0.22397</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17">
+        <v>11.832000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>1.12809</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-0.15437100000000001</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-4.5059999999999996E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>-4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B23" s="3">
         <v>-0.233679</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C23" s="3">
         <v>2.7590000000000002E-3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D23" s="3">
         <v>-2.1981000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>-3</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B24" s="3">
         <v>-0.105972</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C24" s="3">
         <v>-2.0943E-2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>-1.7812000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>-2</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B25" s="3">
         <v>4.8739999999999999E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <v>-4.9626999999999998E-2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>-1.4243E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>-1</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B26" s="3">
         <v>0.188195</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C26" s="3">
         <v>-7.8214000000000006E-2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D26" s="3">
         <v>-1.0912E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B27" s="3">
         <v>0.32624599999999998</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>-0.106346</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>-7.5050000000000004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B28" s="3">
         <v>0.46423399999999998</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C28" s="3">
         <v>-0.134238</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D28" s="3">
         <v>-3.9410000000000001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B29" s="3">
         <v>0.60262000000000004</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>-0.16204299999999999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
         <v>-2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B30" s="3">
         <v>0.74014199999999997</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>-0.189665</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D30" s="3">
         <v>3.3549999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B31" s="3">
         <v>0.87064399999999997</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>-0.216588</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D31" s="3">
         <v>6.8360000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B34" s="3">
-        <v>-0.20575199999999999</v>
-      </c>
-      <c r="C34" s="3">
-        <v>3.444E-3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-2.1288999999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B35" s="3">
-        <v>-8.1004999999999994E-2</v>
-      </c>
-      <c r="C35" s="3">
-        <v>-2.4212000000000001E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-1.6719999999999999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B36" s="3">
-        <v>4.8153000000000001E-2</v>
+        <v>-0.20575199999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>-4.9972000000000003E-2</v>
+        <v>3.444E-3</v>
       </c>
       <c r="D36" s="3">
-        <v>-1.3531E-2</v>
+        <v>-2.1288999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B37" s="3">
-        <v>0.17576</v>
+        <v>-8.1004999999999994E-2</v>
       </c>
       <c r="C37" s="3">
-        <v>-7.5380000000000003E-2</v>
+        <v>-2.4212000000000001E-2</v>
       </c>
       <c r="D37" s="3">
-        <v>-1.0246999999999999E-2</v>
+        <v>-1.6719999999999999E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B38" s="3">
-        <v>0.30285400000000001</v>
+        <v>4.8153000000000001E-2</v>
       </c>
       <c r="C38" s="3">
-        <v>-0.100554</v>
+        <v>-4.9972000000000003E-2</v>
       </c>
       <c r="D38" s="3">
-        <v>-6.8120000000000003E-3</v>
+        <v>-1.3531E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B39" s="3">
-        <v>0.42979200000000001</v>
+        <v>0.17576</v>
       </c>
       <c r="C39" s="3">
-        <v>-0.125584</v>
+        <v>-7.5380000000000003E-2</v>
       </c>
       <c r="D39" s="3">
-        <v>-3.2429999999999998E-3</v>
+        <v>-1.0246999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B40" s="3">
-        <v>0.55674900000000005</v>
+        <v>0.30285400000000001</v>
       </c>
       <c r="C40" s="3">
-        <v>-0.15052399999999999</v>
+        <v>-0.100554</v>
       </c>
       <c r="D40" s="3">
-        <v>4.4099999999999999E-4</v>
+        <v>-6.8120000000000003E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="3">
-        <v>0.683639</v>
+        <v>0.42979200000000001</v>
       </c>
       <c r="C41" s="3">
-        <v>-0.17538400000000001</v>
+        <v>-0.125584</v>
       </c>
       <c r="D41" s="3">
-        <v>4.2199999999999998E-3</v>
+        <v>-3.2429999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.55674900000000005</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-0.15052399999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4.4099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.683639</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-0.17538400000000001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4.2199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>4</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B44" s="3">
         <v>0.80876099999999995</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C44" s="3">
         <v>-0.19999600000000001</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D44" s="3">
         <v>8.0479999999999996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B47" s="3">
-        <v>-0.19725799999999999</v>
-      </c>
-      <c r="C47" s="3">
-        <v>-1.8339999999999999E-3</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-1.9106000000000001E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B48" s="3">
-        <v>-7.4448E-2</v>
-      </c>
-      <c r="C48" s="3">
-        <v>-2.5849E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>-1.6116999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B49" s="3">
-        <v>4.6885999999999997E-2</v>
+        <v>-0.19725799999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>-4.9611000000000002E-2</v>
+        <v>-1.8339999999999999E-3</v>
       </c>
       <c r="D49" s="3">
-        <v>-1.2999999999999999E-2</v>
+        <v>-1.9106000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B50" s="3">
-        <v>0.16753299999999999</v>
+        <v>-7.4448E-2</v>
       </c>
       <c r="C50" s="3">
-        <v>-7.3182999999999998E-2</v>
+        <v>-2.5849E-2</v>
       </c>
       <c r="D50" s="3">
-        <v>-9.7350000000000006E-3</v>
+        <v>-1.6116999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B51" s="3">
-        <v>0.28781400000000001</v>
+        <v>4.6885999999999997E-2</v>
       </c>
       <c r="C51" s="3">
-        <v>-9.6605999999999997E-2</v>
+        <v>-4.9611000000000002E-2</v>
       </c>
       <c r="D51" s="3">
-        <v>-6.3299999999999997E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B52" s="3">
-        <v>0.40792299999999998</v>
+        <v>0.16753299999999999</v>
       </c>
       <c r="C52" s="3">
-        <v>-0.11992899999999999</v>
+        <v>-7.3182999999999998E-2</v>
       </c>
       <c r="D52" s="3">
-        <v>-2.7920000000000002E-3</v>
+        <v>-9.7350000000000006E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B53" s="3">
-        <v>0.52797000000000005</v>
+        <v>0.28781400000000001</v>
       </c>
       <c r="C53" s="3">
-        <v>-0.14318</v>
+        <v>-9.6605999999999997E-2</v>
       </c>
       <c r="D53" s="3">
-        <v>8.7399999999999999E-4</v>
+        <v>-6.3299999999999997E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" s="3">
-        <v>0.64792099999999997</v>
+        <v>0.40792299999999998</v>
       </c>
       <c r="C54" s="3">
-        <v>-0.16636100000000001</v>
+        <v>-0.11992899999999999</v>
       </c>
       <c r="D54" s="3">
-        <v>4.6579999999999998E-3</v>
+        <v>-2.7920000000000002E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.52797000000000005</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-0.14318</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8.7399999999999999E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.64792099999999997</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-0.16636100000000001</v>
+      </c>
+      <c r="D56" s="3">
+        <v>4.6579999999999998E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>4</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B57" s="3">
         <v>0.76748499999999997</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C57" s="3">
         <v>-0.189446</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D57" s="3">
         <v>8.548E-3</v>
       </c>
     </row>
@@ -11551,10 +11785,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B5717A-8857-C147-9F2D-5E818A865D0F}">
-  <dimension ref="A1:M55"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11562,12 +11796,12 @@
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>43</v>
       </c>
@@ -11578,7 +11812,7 @@
         <v>30.1922</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
         <v>53</v>
       </c>
@@ -11586,7 +11820,7 @@
         <v>10.5244</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
@@ -11598,7 +11832,7 @@
         <v>-47.426173378898717</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
@@ -11611,8 +11845,15 @@
       <c r="D7" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7">
+        <f>B13-B12</f>
+        <v>0.16482100000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>-4</v>
       </c>
@@ -11626,7 +11867,7 @@
         <v>-1.7382999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>-3</v>
       </c>
@@ -11639,8 +11880,18 @@
       <c r="D9" s="3">
         <v>-1.4012999999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="N9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>-2</v>
       </c>
@@ -11654,7 +11905,7 @@
         <v>-1.0644000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>-1</v>
       </c>
@@ -11667,8 +11918,34 @@
       <c r="D11" s="3">
         <v>-7.5310000000000004E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" s="16">
+        <v>-0.14760200000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11">
+        <f>I11*I12*I13</f>
+        <v>-46.901242466347369</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11">
+        <f>L11/(O11-O12)</f>
+        <v>-62.920904838137062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>0</v>
       </c>
@@ -11681,20 +11958,20 @@
       <c r="D12" s="3">
         <v>-5.189E-3</v>
       </c>
-      <c r="F12">
-        <f>ABS(D13)-ABS(D12)</f>
-        <v>-2.078E-3</v>
+      <c r="H12" t="s">
+        <v>63</v>
       </c>
       <c r="I12">
-        <f>(ABS(D13)-ABS(D12))/(ABS(B13-B12))</f>
-        <v>-1.2607616747865863E-2</v>
-      </c>
-      <c r="M12">
-        <f>B13-B12</f>
-        <v>0.16482100000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>30.1922</v>
+      </c>
+      <c r="N12" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="14">
+        <v>-0.19539999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -11707,8 +11984,14 @@
       <c r="D13" s="3">
         <v>-3.1110000000000001E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13">
+        <v>10.5244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -11722,7 +12005,7 @@
         <v>-9.3400000000000004E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -11736,7 +12019,7 @@
         <v>1.193E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -11750,438 +12033,469 @@
         <v>3.3040000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14">
+        <v>-0.19539999999999999</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="H17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17">
+        <f>(C13-C12)/(B13-B12)</f>
+        <v>-0.20227398207752642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
+        <v>0.95075100000000001</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-0.14760200000000001</v>
+      </c>
+      <c r="D18" s="16">
+        <v>-3.2179999999999999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:9" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>-4</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B23" s="3">
         <v>-0.21454500000000001</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C23" s="3">
         <v>5.5149999999999999E-3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D23" s="3">
         <v>-1.4399E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>-3</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B24" s="3">
         <v>-2.1642000000000002E-2</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C24" s="3">
         <v>-2.3295E-2</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="3">
         <v>-1.1009E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>-2</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B25" s="3">
         <v>6.6272999999999999E-2</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C25" s="3">
         <v>-5.0888999999999997E-2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>-9.0900000000000009E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>-1</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B26" s="3">
         <v>0.20604500000000001</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C26" s="3">
         <v>-7.8256999999999993E-2</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D26" s="3">
         <v>-7.0239999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>0</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B27" s="3">
         <v>0.34570699999999999</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C27" s="3">
         <v>-0.105407</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D27" s="3">
         <v>-4.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B28" s="3">
         <v>0.48575699999999999</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C28" s="3">
         <v>-0.132489</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D28" s="3">
         <v>-2.3540000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B29" s="3">
         <v>0.62620500000000001</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C29" s="3">
         <v>-0.159521</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D29" s="3">
         <v>1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B30" s="3">
         <v>0.76475599999999999</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C30" s="3">
         <v>-0.18621699999999999</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D30" s="3">
         <v>2.653E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B31" s="3">
         <v>0.89964500000000003</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C31" s="3">
         <v>-0.21268200000000001</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D31" s="3">
         <v>5.0369999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B34" s="3">
-        <v>-0.19628999999999999</v>
-      </c>
-      <c r="C34" s="3">
-        <v>-2.2820000000000002E-3</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-1.3325999999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B35" s="3">
-        <v>-6.5721000000000002E-2</v>
-      </c>
-      <c r="C35" s="3">
-        <v>-2.5774999999999999E-2</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-1.0864E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B36" s="3">
-        <v>6.4383999999999997E-2</v>
+        <v>-0.19628999999999999</v>
       </c>
       <c r="C36" s="3">
-        <v>-5.0856999999999999E-2</v>
+        <v>-2.2820000000000002E-3</v>
       </c>
       <c r="D36" s="3">
-        <v>-8.8109999999999994E-3</v>
+        <v>-1.3325999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B37" s="3">
-        <v>0.19255</v>
+        <v>-6.5721000000000002E-2</v>
       </c>
       <c r="C37" s="3">
-        <v>-7.5179999999999997E-2</v>
+        <v>-2.5774999999999999E-2</v>
       </c>
       <c r="D37" s="3">
-        <v>-6.6420000000000003E-3</v>
+        <v>-1.0864E-2</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B38" s="3">
-        <v>0.320627</v>
+        <v>6.4383999999999997E-2</v>
       </c>
       <c r="C38" s="3">
-        <v>-9.9418000000000006E-2</v>
+        <v>-5.0856999999999999E-2</v>
       </c>
       <c r="D38" s="3">
-        <v>-4.3439999999999998E-3</v>
+        <v>-8.8109999999999994E-3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B39" s="3">
-        <v>0.44881700000000002</v>
+        <v>0.19255</v>
       </c>
       <c r="C39" s="3">
-        <v>-0.12359299999999999</v>
+        <v>-7.5179999999999997E-2</v>
       </c>
       <c r="D39" s="3">
-        <v>-1.9269999999999999E-3</v>
+        <v>-6.6420000000000003E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B40" s="3">
-        <v>0.57686400000000004</v>
+        <v>0.320627</v>
       </c>
       <c r="C40" s="3">
-        <v>-0.147644</v>
+        <v>-9.9418000000000006E-2</v>
       </c>
       <c r="D40" s="3">
-        <v>6.0499999999999996E-4</v>
+        <v>-4.3439999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B41" s="3">
-        <v>0.70504299999999998</v>
+        <v>0.44881700000000002</v>
       </c>
       <c r="C41" s="3">
-        <v>-0.171622</v>
+        <v>-0.12359299999999999</v>
       </c>
       <c r="D41" s="3">
-        <v>3.2469999999999999E-3</v>
+        <v>-1.9269999999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.57686400000000004</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-0.147644</v>
+      </c>
+      <c r="D42" s="3">
+        <v>6.0499999999999996E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.70504299999999998</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-0.171622</v>
+      </c>
+      <c r="D43" s="3">
+        <v>3.2469999999999999E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>4</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B44" s="3">
         <v>0.83235199999999998</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C44" s="3">
         <v>-0.195469</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D44" s="3">
         <v>5.9569999999999996E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>-4</v>
-      </c>
-      <c r="B47" s="3">
-        <v>-0.18535199999999999</v>
-      </c>
-      <c r="C47" s="3">
-        <v>-5.0749999999999997E-3</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-1.2465E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>-3</v>
-      </c>
-      <c r="B48" s="3">
-        <v>-5.8230999999999998E-2</v>
-      </c>
-      <c r="C48" s="3">
-        <v>-2.7910999999999998E-2</v>
-      </c>
-      <c r="D48" s="3">
-        <v>-1.0539E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="B49" s="3">
-        <v>6.3062000000000007E-2</v>
+        <v>-0.18535199999999999</v>
       </c>
       <c r="C49" s="3">
-        <v>-5.0507999999999997E-2</v>
+        <v>-5.0749999999999997E-3</v>
       </c>
       <c r="D49" s="3">
-        <v>-8.5079999999999999E-3</v>
+        <v>-1.2465E-2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B50" s="3">
-        <v>0.18398600000000001</v>
+        <v>-5.8230999999999998E-2</v>
       </c>
       <c r="C50" s="3">
-        <v>-7.3019000000000001E-2</v>
+        <v>-2.7910999999999998E-2</v>
       </c>
       <c r="D50" s="3">
-        <v>-6.3470000000000002E-3</v>
+        <v>-1.0539E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B51" s="3">
-        <v>0.304869</v>
+        <v>6.3062000000000007E-2</v>
       </c>
       <c r="C51" s="3">
-        <v>-9.5479999999999995E-2</v>
+        <v>-5.0507999999999997E-2</v>
       </c>
       <c r="D51" s="3">
-        <v>-4.0590000000000001E-3</v>
+        <v>-8.5079999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B52" s="3">
-        <v>0.42577100000000001</v>
+        <v>0.18398600000000001</v>
       </c>
       <c r="C52" s="3">
-        <v>-0.117879</v>
+        <v>-7.3019000000000001E-2</v>
       </c>
       <c r="D52" s="3">
-        <v>-1.647E-3</v>
+        <v>-6.3470000000000002E-3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B53" s="3">
-        <v>0.54638200000000003</v>
-      </c>
-      <c r="C53">
-        <v>-0.14013400000000001</v>
+        <v>0.304869</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-9.5479999999999995E-2</v>
       </c>
       <c r="D53" s="3">
-        <v>8.8599999999999996E-4</v>
+        <v>-4.0590000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B54" s="3">
-        <v>0.66707700000000003</v>
+        <v>0.42577100000000001</v>
       </c>
       <c r="C54" s="3">
-        <v>-0.16231499999999999</v>
+        <v>-0.117879</v>
       </c>
       <c r="D54" s="3">
-        <v>3.5479999999999999E-3</v>
+        <v>-1.647E-3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.54638200000000003</v>
+      </c>
+      <c r="C55">
+        <v>-0.14013400000000001</v>
+      </c>
+      <c r="D55" s="3">
+        <v>8.8599999999999996E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.66707700000000003</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-0.16231499999999999</v>
+      </c>
+      <c r="D56" s="3">
+        <v>3.5479999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>4</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B57" s="3">
         <v>0.78798999999999997</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C57" s="3">
         <v>-0.18448300000000001</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D57" s="3">
         <v>6.3270000000000002E-3</v>
       </c>
     </row>

--- a/Airframe_datasheet/Airframe.xlsx
+++ b/Airframe_datasheet/Airframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prateekranjan/Documents/Github/TASOPT.jl/Airframe_datasheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B6C886-6128-C449-9842-CFBA69E6125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E568F3-F378-3E40-A001-A2777653C6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{58E75CC3-7538-724F-88E7-0C02D6709868}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18140" xr2:uid="{58E75CC3-7538-724F-88E7-0C02D6709868}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="109">
   <si>
     <t>Airframe</t>
   </si>
@@ -359,6 +359,15 @@
   <si>
     <t>ReC</t>
   </si>
+  <si>
+    <t>Fractions</t>
+  </si>
+  <si>
+    <t>dCMF_dCL</t>
+  </si>
+  <si>
+    <t>Fan Dia</t>
+  </si>
 </sst>
 </file>
 
@@ -529,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,7 +619,6 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26168,10 +26176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8EE234-731B-B640-87BF-23E34BF57369}">
-  <dimension ref="A1:X32"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26193,7 +26201,7 @@
     <col min="24" max="24" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -26266,9 +26274,12 @@
       <c r="X1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="Y1" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:24" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -26322,12 +26333,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -26398,8 +26409,11 @@
         <f>W5/29.4</f>
         <v>1.0363415881210178</v>
       </c>
+      <c r="Y5">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -26470,8 +26484,11 @@
         <f t="shared" ref="X6:X17" si="3">W6/29.4</f>
         <v>1.0363415881210178</v>
       </c>
+      <c r="Y6">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -26542,8 +26559,11 @@
         <f t="shared" si="3"/>
         <v>1.1018581355265498</v>
       </c>
+      <c r="Y7">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -26614,15 +26634,18 @@
         <f t="shared" si="3"/>
         <v>1.1018581355265498</v>
       </c>
+      <c r="Y8">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="G9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="X9" s="9"/>
     </row>
-    <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -26694,8 +26717,11 @@
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
+      <c r="Y10">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -26767,8 +26793,11 @@
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
+      <c r="Y11">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -26843,8 +26872,11 @@
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
+      <c r="Y12">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -26919,8 +26951,11 @@
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
+      <c r="Y13">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -26992,14 +27027,17 @@
         <f t="shared" si="3"/>
         <v>0.80901360544217693</v>
       </c>
+      <c r="Y14">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="X15" s="9"/>
     </row>
-    <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -27073,8 +27111,11 @@
         <f t="shared" si="3"/>
         <v>1.0257366544126496</v>
       </c>
+      <c r="Y16">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -27148,8 +27189,11 @@
         <f t="shared" si="3"/>
         <v>1.0257366544126496</v>
       </c>
+      <c r="Y17">
+        <v>2.19</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -27186,7 +27230,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -27223,7 +27267,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -27260,7 +27304,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
@@ -27297,7 +27341,7 @@
         <v>124.6</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -27314,7 +27358,7 @@
         <v>164000</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -27345,7 +27389,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -27376,7 +27420,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -27407,7 +27451,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -27438,7 +27482,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -27449,7 +27493,7 @@
         <v>166000</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
@@ -27460,7 +27504,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -27480,8 +27524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E50E5B2-5444-154F-9F6D-E8C6361B9A58}">
   <dimension ref="A1:Y82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27790,8 +27834,8 @@
         <v>76</v>
       </c>
       <c r="U13">
-        <f>O13-O12</f>
-        <v>3.2849999999999997E-3</v>
+        <f>ABS(O13)-ABS(O12)</f>
+        <v>-3.2849999999999997E-3</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -27830,6 +27874,13 @@
       </c>
       <c r="S14">
         <v>1.3710999999999999E-2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>107</v>
+      </c>
+      <c r="U14">
+        <f>((N13)-(N12))/(M13-M12)</f>
+        <v>-0.26134387256959846</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
@@ -27923,6 +27974,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="14"/>
+      <c r="T17" s="13"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
@@ -27941,6 +27993,7 @@
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
       <c r="O18" s="16"/>
+      <c r="T18" s="13"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
@@ -29549,8 +29602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DD52E1-913A-D54C-9664-7A9A1E8B51DB}">
   <dimension ref="A1:AJ70"/>
   <sheetViews>
-    <sheetView topLeftCell="P8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29686,6 +29739,29 @@
         <f>B13-B12</f>
         <v>0.16055600000000003</v>
       </c>
+      <c r="X4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA4">
+        <f>AA3/Y3</f>
+        <v>9.5740000000000006E-2</v>
+      </c>
+      <c r="AC4">
+        <f>AC3/Y3</f>
+        <v>-9.5703999999999997E-2</v>
+      </c>
+      <c r="AE4">
+        <f>AE3/Y3</f>
+        <v>1.013968</v>
+      </c>
+      <c r="AG4">
+        <f>AG3/Y3</f>
+        <v>-1.4534E-2</v>
+      </c>
+      <c r="AI4">
+        <f>AI3/Y3</f>
+        <v>5.3600000000000002E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -29897,6 +29973,13 @@
       <c r="AA11">
         <v>-3.5000000000000001E-3</v>
       </c>
+      <c r="AB11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC11">
+        <f>U13-U12</f>
+        <v>0.19686200000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -29935,6 +30018,13 @@
       <c r="AA12">
         <v>6.6200000000000005E-4</v>
       </c>
+      <c r="AB12" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC12">
+        <f>W13-W12</f>
+        <v>4.353000000000001E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -29982,6 +30072,13 @@
       </c>
       <c r="AA13">
         <v>6.9629999999999996E-3</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC13">
+        <f>(V13-V12)/(U13-U12)</f>
+        <v>-0.25350245349534184</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.2">
@@ -31285,6 +31382,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -31293,8 +31391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B5717A-8857-C147-9F2D-5E818A865D0F}">
   <dimension ref="A1:AN82"/>
   <sheetViews>
-    <sheetView topLeftCell="AB3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12:AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31429,6 +31527,29 @@
       <c r="I4">
         <v>10.5244</v>
       </c>
+      <c r="AA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE4">
+        <f>AE3/AC3</f>
+        <v>9.7306000000000004E-2</v>
+      </c>
+      <c r="AG4">
+        <f>AG3/AC3</f>
+        <v>-9.2710000000000001E-2</v>
+      </c>
+      <c r="AI4">
+        <f>AI3/AC3</f>
+        <v>1.0063679999999999</v>
+      </c>
+      <c r="AK4">
+        <f>AK3/AC3</f>
+        <v>-9.7140000000000004E-3</v>
+      </c>
+      <c r="AM4">
+        <f>AM3/AC3</f>
+        <v>-1.2520000000000001E-3</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
@@ -31782,8 +31903,8 @@
         <v>76</v>
       </c>
       <c r="AC13">
-        <f>W13-W12</f>
-        <v>2.7270000000000003E-3</v>
+        <f>ABS(W13)-ABS(W12)</f>
+        <v>-2.7270000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.2">
@@ -31822,6 +31943,13 @@
       </c>
       <c r="AA14">
         <v>2.9172E-2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC14">
+        <f>((V13)-(V12))/(U13-U12)</f>
+        <v>-0.23645626837513514</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.2">
@@ -33560,6 +33688,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -33569,7 +33698,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33647,7 +33776,7 @@
         <f>(D2*F2*H2)/G2</f>
         <v>52894441.711407095</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2">
         <f>(D2*F2*I2)/G2</f>
         <v>32618004.513989586</v>
       </c>
@@ -33678,7 +33807,7 @@
       <c r="I3" s="3">
         <v>6.7</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3">
         <f t="shared" ref="K3:K4" si="0">(D3*F3*I3)/G3</f>
         <v>33673440.715520836</v>
       </c>
@@ -33709,7 +33838,7 @@
       <c r="I4" s="3">
         <v>7.3090000000000002</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>36734205.699961469</v>
       </c>
@@ -33746,7 +33875,7 @@
         <f>(D6*F6*I6)/G6</f>
         <v>32006399.974846285</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6">
         <f>(D6*F6*I6)/G6</f>
         <v>32006399.974846285</v>
       </c>
@@ -33777,7 +33906,7 @@
       <c r="I7" s="3">
         <v>6.7</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7">
         <f t="shared" ref="K7:K8" si="1">(D7*F7*I7)/G7</f>
         <v>33042046.198993854</v>
       </c>
@@ -33808,7 +33937,7 @@
       <c r="I8" s="3">
         <v>7.3090000000000002</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8">
         <f t="shared" si="1"/>
         <v>36045420.249021806</v>
       </c>
